--- a/03_ips_clean/05_ips_utop_distop_long.xlsx
+++ b/03_ips_clean/05_ips_utop_distop_long.xlsx
@@ -720,10 +720,10 @@
         <v>20</v>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C19" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -753,10 +753,10 @@
         <v>23</v>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>1.45508729917437</v>
       </c>
       <c r="C22" t="n">
-        <v>-0.0943799472061553</v>
+        <v>-9.44128729917438</v>
       </c>
     </row>
     <row r="23">
@@ -797,10 +797,10 @@
         <v>27</v>
       </c>
       <c r="B26" t="n">
-        <v>0.566973320863775</v>
+        <v>1.56697332086377</v>
       </c>
       <c r="C26" t="n">
-        <v>-3.95067332086377</v>
+        <v>-2.95067332086377</v>
       </c>
     </row>
     <row r="27">
@@ -808,10 +808,10 @@
         <v>28</v>
       </c>
       <c r="B27" t="n">
-        <v>77.2896579444154</v>
+        <v>-22.7103420555846</v>
       </c>
       <c r="C27" t="n">
-        <v>72.1103420555846</v>
+        <v>-27.8896579444154</v>
       </c>
     </row>
     <row r="28">
@@ -885,10 +885,10 @@
         <v>35</v>
       </c>
       <c r="B34" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="35">
@@ -896,10 +896,10 @@
         <v>36</v>
       </c>
       <c r="B35" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="36">
@@ -951,10 +951,10 @@
         <v>41</v>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C40" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -1017,10 +1017,10 @@
         <v>47</v>
       </c>
       <c r="B46" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="47">
@@ -1028,10 +1028,10 @@
         <v>48</v>
       </c>
       <c r="B47" t="n">
-        <v>0</v>
+        <v>0.770517376477767</v>
       </c>
       <c r="C47" t="n">
-        <v>-5.58871737647777</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48">
@@ -1039,10 +1039,10 @@
         <v>49</v>
       </c>
       <c r="B48" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="C48" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="49">
@@ -1072,10 +1072,10 @@
         <v>52</v>
       </c>
       <c r="B51" t="n">
-        <v>152.555047730535</v>
+        <v>152.521817513277</v>
       </c>
       <c r="C51" t="n">
-        <v>12.0449522694651</v>
+        <v>12.078182486723</v>
       </c>
     </row>
     <row r="52">
@@ -1105,10 +1105,10 @@
         <v>55</v>
       </c>
       <c r="B54" t="n">
-        <v>0</v>
+        <v>9.55150557584923</v>
       </c>
       <c r="C54" t="n">
-        <v>-0.520374439660112</v>
+        <v>-52.0332055758492</v>
       </c>
     </row>
     <row r="55">
@@ -1116,10 +1116,10 @@
         <v>56</v>
       </c>
       <c r="B55" t="n">
-        <v>0</v>
+        <v>-83.0411921843169</v>
       </c>
       <c r="C55" t="n">
-        <v>-1.34433831958283</v>
+        <v>-134.435607815683</v>
       </c>
     </row>
     <row r="56">
@@ -1127,10 +1127,10 @@
         <v>57</v>
       </c>
       <c r="B56" t="n">
-        <v>2725.84679094237</v>
+        <v>2724.90891581896</v>
       </c>
       <c r="C56" t="n">
-        <v>-374.846790942375</v>
+        <v>-373.908915818964</v>
       </c>
     </row>
   </sheetData>

--- a/03_ips_clean/05_ips_utop_distop_long.xlsx
+++ b/03_ips_clean/05_ips_utop_distop_long.xlsx
@@ -536,7 +536,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>-100</v>
       </c>
     </row>
     <row r="3">
@@ -566,10 +566,10 @@
         <v>6</v>
       </c>
       <c r="B5" t="n">
-        <v>2911.37208789286</v>
+        <v>-0.893519723076453</v>
       </c>
       <c r="C5" t="n">
-        <v>-22745.3720878929</v>
+        <v>-37.4293802769235</v>
       </c>
     </row>
     <row r="6">
@@ -613,7 +613,7 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>100</v>
+        <v>-100</v>
       </c>
     </row>
     <row r="10">
@@ -624,7 +624,7 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>100</v>
+        <v>-100</v>
       </c>
     </row>
     <row r="11">
@@ -635,7 +635,7 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>100</v>
+        <v>-100</v>
       </c>
     </row>
     <row r="12">
@@ -646,7 +646,7 @@
         <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>100</v>
+        <v>-100</v>
       </c>
     </row>
     <row r="13">
@@ -701,7 +701,7 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>100</v>
+        <v>-100</v>
       </c>
     </row>
     <row r="18">
@@ -830,10 +830,10 @@
         <v>30</v>
       </c>
       <c r="B29" t="n">
-        <v>30199.6191533594</v>
+        <v>-43.4597587435137</v>
       </c>
       <c r="C29" t="n">
-        <v>-226261.619153359</v>
+        <v>-262.401441256486</v>
       </c>
     </row>
     <row r="30">
@@ -877,7 +877,7 @@
         <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>100</v>
+        <v>-100</v>
       </c>
     </row>
     <row r="34">
@@ -888,7 +888,7 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>100</v>
+        <v>-100</v>
       </c>
     </row>
     <row r="35">
@@ -899,7 +899,7 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>100</v>
+        <v>-100</v>
       </c>
     </row>
     <row r="36">
@@ -932,7 +932,7 @@
         <v>100</v>
       </c>
       <c r="C38" t="n">
-        <v>12.4450328218116</v>
+        <v>12.4593014273379</v>
       </c>
     </row>
     <row r="39">
@@ -965,7 +965,7 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>100</v>
+        <v>-100</v>
       </c>
     </row>
     <row r="42">
@@ -998,7 +998,7 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>100</v>
+        <v>-100</v>
       </c>
     </row>
     <row r="45">
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>100</v>
+        <v>-100</v>
       </c>
     </row>
     <row r="47">
@@ -1042,7 +1042,7 @@
         <v>0</v>
       </c>
       <c r="C48" t="n">
-        <v>100</v>
+        <v>-100</v>
       </c>
     </row>
     <row r="49">
@@ -1053,7 +1053,7 @@
         <v>0</v>
       </c>
       <c r="C49" t="n">
-        <v>100</v>
+        <v>-100</v>
       </c>
     </row>
     <row r="50">
@@ -1064,7 +1064,7 @@
         <v>0</v>
       </c>
       <c r="C50" t="n">
-        <v>100</v>
+        <v>-100</v>
       </c>
     </row>
     <row r="51">
@@ -1127,10 +1127,10 @@
         <v>57</v>
       </c>
       <c r="B56" t="n">
-        <v>2724.90891581896</v>
+        <v>6.70397143911055</v>
       </c>
       <c r="C56" t="n">
-        <v>-373.908915818964</v>
+        <v>-0.546271439110546</v>
       </c>
     </row>
   </sheetData>

--- a/03_ips_clean/05_ips_utop_distop_long.xlsx
+++ b/03_ips_clean/05_ips_utop_distop_long.xlsx
@@ -665,7 +665,7 @@
         <v>15</v>
       </c>
       <c r="B14" t="n">
-        <v>233.281535421447</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>-1931.26373542145</v>
@@ -676,10 +676,10 @@
         <v>16</v>
       </c>
       <c r="B15" t="n">
-        <v>0.0888536878810968</v>
+        <v>-1</v>
       </c>
       <c r="C15" t="n">
-        <v>-6.0888536878811</v>
+        <v>-5</v>
       </c>
     </row>
     <row r="16">
@@ -687,10 +687,10 @@
         <v>17</v>
       </c>
       <c r="B16" t="n">
-        <v>-0.110036605068966</v>
+        <v>-1</v>
       </c>
       <c r="C16" t="n">
-        <v>-6.05496339493103</v>
+        <v>-5</v>
       </c>
     </row>
     <row r="17">

--- a/03_ips_clean/05_ips_utop_distop_long.xlsx
+++ b/03_ips_clean/05_ips_utop_distop_long.xlsx
@@ -668,7 +668,7 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>-1931.26373542145</v>
+        <v>-11.539865920551</v>
       </c>
     </row>
     <row r="15">

--- a/03_ips_clean/05_ips_utop_distop_long.xlsx
+++ b/03_ips_clean/05_ips_utop_distop_long.xlsx
@@ -720,7 +720,7 @@
         <v>20</v>
       </c>
       <c r="B19" t="n">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -753,10 +753,10 @@
         <v>23</v>
       </c>
       <c r="B22" t="n">
-        <v>1.45508729917437</v>
+        <v>0.0145799472061553</v>
       </c>
       <c r="C22" t="n">
-        <v>-9.44128729917438</v>
+        <v>-0.0943799472061553</v>
       </c>
     </row>
     <row r="23">
@@ -808,10 +808,10 @@
         <v>28</v>
       </c>
       <c r="B27" t="n">
-        <v>-22.7103420555846</v>
+        <v>77.2896579444154</v>
       </c>
       <c r="C27" t="n">
-        <v>-27.8896579444154</v>
+        <v>72.1103420555846</v>
       </c>
     </row>
     <row r="28">
@@ -888,7 +888,7 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>-100</v>
+        <v>100</v>
       </c>
     </row>
     <row r="35">
@@ -899,7 +899,7 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>-100</v>
+        <v>100</v>
       </c>
     </row>
     <row r="36">

--- a/03_ips_clean/05_ips_utop_distop_long.xlsx
+++ b/03_ips_clean/05_ips_utop_distop_long.xlsx
@@ -544,7 +544,7 @@
         <v>4</v>
       </c>
       <c r="B3" t="n">
-        <v>3.73808203365187</v>
+        <v>3.7380820336519</v>
       </c>
       <c r="C3" t="n">
         <v>-74.8020820336519</v>
@@ -566,10 +566,10 @@
         <v>6</v>
       </c>
       <c r="B5" t="n">
-        <v>-0.893519723076453</v>
+        <v>-0.89351972307645</v>
       </c>
       <c r="C5" t="n">
-        <v>-37.4293802769235</v>
+        <v>-37.4293802769236</v>
       </c>
     </row>
     <row r="6">
@@ -720,10 +720,10 @@
         <v>20</v>
       </c>
       <c r="B19" t="n">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>-100</v>
       </c>
     </row>
     <row r="20">
@@ -797,10 +797,10 @@
         <v>27</v>
       </c>
       <c r="B26" t="n">
-        <v>1.56697332086377</v>
+        <v>1.56697332086378</v>
       </c>
       <c r="C26" t="n">
-        <v>-2.95067332086377</v>
+        <v>-2.95067332086378</v>
       </c>
     </row>
     <row r="27">
@@ -830,7 +830,7 @@
         <v>30</v>
       </c>
       <c r="B29" t="n">
-        <v>-43.4597587435137</v>
+        <v>-43.4597587435138</v>
       </c>
       <c r="C29" t="n">
         <v>-262.401441256486</v>
@@ -885,10 +885,10 @@
         <v>35</v>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C34" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -896,10 +896,10 @@
         <v>36</v>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C35" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -940,7 +940,7 @@
         <v>40</v>
       </c>
       <c r="B39" t="n">
-        <v>1.15558321354577</v>
+        <v>1.15558321354578</v>
       </c>
       <c r="C39" t="n">
         <v>-0.155583213545775</v>
@@ -1028,7 +1028,7 @@
         <v>48</v>
       </c>
       <c r="B47" t="n">
-        <v>0.770517376477767</v>
+        <v>1.00768713875036</v>
       </c>
       <c r="C47" t="n">
         <v>0</v>
@@ -1130,7 +1130,7 @@
         <v>6.70397143911055</v>
       </c>
       <c r="C56" t="n">
-        <v>-0.546271439110546</v>
+        <v>-0.54627143911055</v>
       </c>
     </row>
   </sheetData>

--- a/03_ips_clean/05_ips_utop_distop_long.xlsx
+++ b/03_ips_clean/05_ips_utop_distop_long.xlsx
@@ -533,10 +533,10 @@
         <v>3</v>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>-4.77539731740352</v>
       </c>
       <c r="C2" t="n">
-        <v>-100</v>
+        <v>-53.5246026825965</v>
       </c>
     </row>
     <row r="3">
@@ -544,7 +544,7 @@
         <v>4</v>
       </c>
       <c r="B3" t="n">
-        <v>3.7380820336519</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
         <v>-74.8020820336519</v>
@@ -555,7 +555,7 @@
         <v>5</v>
       </c>
       <c r="B4" t="n">
-        <v>-4.97596066013532</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>-24.4539393398647</v>
@@ -566,10 +566,10 @@
         <v>6</v>
       </c>
       <c r="B5" t="n">
-        <v>-0.89351972307645</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>-37.4293802769236</v>
+        <v>-37.4293802769235</v>
       </c>
     </row>
     <row r="6">
@@ -613,7 +613,7 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>-100</v>
+        <v>-7.76286675797857</v>
       </c>
     </row>
     <row r="10">
@@ -624,7 +624,7 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>-100</v>
+        <v>-17.1962453408388</v>
       </c>
     </row>
     <row r="11">
@@ -654,7 +654,7 @@
         <v>14</v>
       </c>
       <c r="B13" t="n">
-        <v>21.0773613551721</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>-139.107161355172</v>
@@ -709,10 +709,10 @@
         <v>19</v>
       </c>
       <c r="B18" t="n">
-        <v>6.0863173609319</v>
+        <v>100</v>
       </c>
       <c r="C18" t="n">
-        <v>2.2693826390681</v>
+        <v>51.4376835999549</v>
       </c>
     </row>
     <row r="19">
@@ -731,10 +731,10 @@
         <v>21</v>
       </c>
       <c r="B20" t="n">
-        <v>15.5645227673654</v>
+        <v>100</v>
       </c>
       <c r="C20" t="n">
-        <v>7.81187723263465</v>
+        <v>67.7649556213408</v>
       </c>
     </row>
     <row r="21">
@@ -742,10 +742,10 @@
         <v>22</v>
       </c>
       <c r="B21" t="n">
-        <v>6.61256487766897</v>
+        <v>100</v>
       </c>
       <c r="C21" t="n">
-        <v>4.19683512233103</v>
+        <v>58.933323764675</v>
       </c>
     </row>
     <row r="22">
@@ -764,10 +764,10 @@
         <v>24</v>
       </c>
       <c r="B23" t="n">
-        <v>98.7138978920833</v>
+        <v>100</v>
       </c>
       <c r="C23" t="n">
-        <v>44.6936021079167</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -775,7 +775,7 @@
         <v>25</v>
       </c>
       <c r="B24" t="n">
-        <v>100</v>
+        <v>75.2551692396746</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
@@ -797,10 +797,10 @@
         <v>27</v>
       </c>
       <c r="B26" t="n">
-        <v>1.56697332086378</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>-2.95067332086378</v>
+        <v>-3.95067087397286</v>
       </c>
     </row>
     <row r="27">
@@ -830,7 +830,7 @@
         <v>30</v>
       </c>
       <c r="B29" t="n">
-        <v>-43.4597587435138</v>
+        <v>-43.4597587435137</v>
       </c>
       <c r="C29" t="n">
         <v>-262.401441256486</v>
@@ -907,7 +907,7 @@
         <v>37</v>
       </c>
       <c r="B36" t="n">
-        <v>100</v>
+        <v>98.4806652187773</v>
       </c>
       <c r="C36" t="n">
         <v>0</v>
@@ -929,7 +929,7 @@
         <v>39</v>
       </c>
       <c r="B38" t="n">
-        <v>100</v>
+        <v>54.8406985726621</v>
       </c>
       <c r="C38" t="n">
         <v>12.4593014273379</v>
@@ -940,10 +940,10 @@
         <v>40</v>
       </c>
       <c r="B39" t="n">
-        <v>1.15558321354578</v>
+        <v>1.15558321354577</v>
       </c>
       <c r="C39" t="n">
-        <v>-0.155583213545775</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -965,7 +965,7 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>-100</v>
+        <v>-32.3714733699923</v>
       </c>
     </row>
     <row r="42">
@@ -973,7 +973,7 @@
         <v>43</v>
       </c>
       <c r="B42" t="n">
-        <v>-7.60336820789477</v>
+        <v>0</v>
       </c>
       <c r="C42" t="n">
         <v>-23.6908317921052</v>
@@ -984,7 +984,7 @@
         <v>44</v>
       </c>
       <c r="B43" t="n">
-        <v>11406.8049579186</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>-75279.8049579186</v>
@@ -1006,7 +1006,7 @@
         <v>46</v>
       </c>
       <c r="B45" t="n">
-        <v>1.01142174094715</v>
+        <v>0</v>
       </c>
       <c r="C45" t="n">
         <v>-27.2911217409472</v>
@@ -1017,10 +1017,10 @@
         <v>47</v>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C46" t="n">
-        <v>-100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47">
@@ -1028,10 +1028,10 @@
         <v>48</v>
       </c>
       <c r="B47" t="n">
-        <v>1.00768713875036</v>
+        <v>77.0516094424606</v>
       </c>
       <c r="C47" t="n">
-        <v>0</v>
+        <v>-558.869809442461</v>
       </c>
     </row>
     <row r="48">
@@ -1042,7 +1042,7 @@
         <v>0</v>
       </c>
       <c r="C48" t="n">
-        <v>-100</v>
+        <v>-105.071881093799</v>
       </c>
     </row>
     <row r="49">
@@ -1053,7 +1053,7 @@
         <v>0</v>
       </c>
       <c r="C49" t="n">
-        <v>-100</v>
+        <v>-36.542136384055</v>
       </c>
     </row>
     <row r="50">
@@ -1064,7 +1064,7 @@
         <v>0</v>
       </c>
       <c r="C50" t="n">
-        <v>-100</v>
+        <v>-54.9649532818915</v>
       </c>
     </row>
     <row r="51">
@@ -1072,10 +1072,10 @@
         <v>52</v>
       </c>
       <c r="B51" t="n">
-        <v>152.521817513277</v>
+        <v>100</v>
       </c>
       <c r="C51" t="n">
-        <v>12.078182486723</v>
+        <v>12.0449522694651</v>
       </c>
     </row>
     <row r="52">
@@ -1083,7 +1083,7 @@
         <v>53</v>
       </c>
       <c r="B52" t="n">
-        <v>0.768721416774195</v>
+        <v>76.8679269298813</v>
       </c>
       <c r="C52" t="n">
         <v>0</v>
@@ -1097,7 +1097,7 @@
         <v>12.1725985085532</v>
       </c>
       <c r="C53" t="n">
-        <v>6.06740149144679</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54">
@@ -1105,7 +1105,7 @@
         <v>55</v>
       </c>
       <c r="B54" t="n">
-        <v>9.55150557584923</v>
+        <v>0</v>
       </c>
       <c r="C54" t="n">
         <v>-52.0332055758492</v>
@@ -1127,10 +1127,10 @@
         <v>57</v>
       </c>
       <c r="B56" t="n">
-        <v>6.70397143911055</v>
+        <v>0</v>
       </c>
       <c r="C56" t="n">
-        <v>-0.54627143911055</v>
+        <v>-0.546271439110546</v>
       </c>
     </row>
   </sheetData>

--- a/03_ips_clean/05_ips_utop_distop_long.xlsx
+++ b/03_ips_clean/05_ips_utop_distop_long.xlsx
@@ -569,7 +569,7 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>-37.4293802769235</v>
+        <v>-37.4293802769236</v>
       </c>
     </row>
     <row r="6">
@@ -830,7 +830,7 @@
         <v>30</v>
       </c>
       <c r="B29" t="n">
-        <v>-43.4597587435137</v>
+        <v>-43.4597587435138</v>
       </c>
       <c r="C29" t="n">
         <v>-262.401441256486</v>
@@ -940,7 +940,7 @@
         <v>40</v>
       </c>
       <c r="B39" t="n">
-        <v>1.15558321354577</v>
+        <v>1.15558321354578</v>
       </c>
       <c r="C39" t="n">
         <v>0</v>
@@ -1028,10 +1028,10 @@
         <v>48</v>
       </c>
       <c r="B47" t="n">
-        <v>77.0516094424606</v>
+        <v>100.768467681994</v>
       </c>
       <c r="C47" t="n">
-        <v>-558.869809442461</v>
+        <v>-582.586667681994</v>
       </c>
     </row>
     <row r="48">
@@ -1075,7 +1075,7 @@
         <v>100</v>
       </c>
       <c r="C51" t="n">
-        <v>12.0449522694651</v>
+        <v>12.078182486723</v>
       </c>
     </row>
     <row r="52">
@@ -1130,7 +1130,7 @@
         <v>0</v>
       </c>
       <c r="C56" t="n">
-        <v>-0.546271439110546</v>
+        <v>-0.54627143911055</v>
       </c>
     </row>
   </sheetData>

--- a/03_ips_clean/05_ips_utop_distop_long.xlsx
+++ b/03_ips_clean/05_ips_utop_distop_long.xlsx
@@ -547,7 +547,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>-74.8020820336519</v>
+        <v>-151.878382199186</v>
       </c>
     </row>
     <row r="4">
@@ -558,7 +558,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>-24.4539393398647</v>
+        <v>-3104.83406800167</v>
       </c>
     </row>
     <row r="5">
@@ -569,7 +569,7 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>-37.4293802769236</v>
+        <v>-37.5863526486337</v>
       </c>
     </row>
     <row r="6">
@@ -808,10 +808,10 @@
         <v>28</v>
       </c>
       <c r="B27" t="n">
-        <v>77.2896579444154</v>
+        <v>83.7</v>
       </c>
       <c r="C27" t="n">
-        <v>72.1103420555846</v>
+        <v>50.1</v>
       </c>
     </row>
     <row r="28">
@@ -819,7 +819,7 @@
         <v>29</v>
       </c>
       <c r="B28" t="n">
-        <v>0.97584586036845</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>-16.8460458603684</v>
@@ -830,10 +830,10 @@
         <v>30</v>
       </c>
       <c r="B29" t="n">
-        <v>-43.4597587435138</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>-262.401441256486</v>
+        <v>-352.663188593939</v>
       </c>
     </row>
     <row r="30">
@@ -841,7 +841,7 @@
         <v>31</v>
       </c>
       <c r="B30" t="n">
-        <v>-26.5111154904301</v>
+        <v>0</v>
       </c>
       <c r="C30" t="n">
         <v>-198.94088450957</v>
@@ -852,7 +852,7 @@
         <v>32</v>
       </c>
       <c r="B31" t="n">
-        <v>19.668891593556</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>-119.668891593556</v>
@@ -863,7 +863,7 @@
         <v>33</v>
       </c>
       <c r="B32" t="n">
-        <v>0.269446563634007</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
         <v>-1.68394656363401</v>
@@ -1028,10 +1028,10 @@
         <v>48</v>
       </c>
       <c r="B47" t="n">
-        <v>100.768467681994</v>
+        <v>101.218631456365</v>
       </c>
       <c r="C47" t="n">
-        <v>-582.586667681994</v>
+        <v>-583.036831456365</v>
       </c>
     </row>
     <row r="48">

--- a/03_ips_clean/05_ips_utop_distop_long.xlsx
+++ b/03_ips_clean/05_ips_utop_distop_long.xlsx
@@ -940,7 +940,7 @@
         <v>40</v>
       </c>
       <c r="B39" t="n">
-        <v>1.15558321354578</v>
+        <v>1.15558321354577</v>
       </c>
       <c r="C39" t="n">
         <v>0</v>
@@ -1130,7 +1130,7 @@
         <v>0</v>
       </c>
       <c r="C56" t="n">
-        <v>-0.54627143911055</v>
+        <v>-0.546271439110546</v>
       </c>
     </row>
   </sheetData>

--- a/03_ips_clean/05_ips_utop_distop_long.xlsx
+++ b/03_ips_clean/05_ips_utop_distop_long.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <workbookPr date1904="false"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105" firstSheet="0" activeTab="0"/>
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="59">
   <si>
     <t xml:space="preserve">id_unica</t>
   </si>
@@ -123,6 +123,9 @@
   </si>
   <si>
     <t xml:space="preserve">ind_0234</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ind_0256</t>
   </si>
   <si>
     <t xml:space="preserve">ind_0335</t>
@@ -191,7 +194,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
   <fonts count="1">
     <font>
@@ -510,10 +513,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="1"/>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="true"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
@@ -533,10 +536,10 @@
         <v>3</v>
       </c>
       <c r="B2" t="n">
-        <v>-4.77539731740352</v>
+        <v>-4.73454724162634</v>
       </c>
       <c r="C2" t="n">
-        <v>-53.5246026825965</v>
+        <v>-53.5654527583737</v>
       </c>
     </row>
     <row r="3">
@@ -547,7 +550,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>-151.878382199186</v>
+        <v>-183.91424568842</v>
       </c>
     </row>
     <row r="4">
@@ -558,7 +561,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>-3104.83406800167</v>
+        <v>-3293.55117421015</v>
       </c>
     </row>
     <row r="5">
@@ -569,7 +572,7 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>-37.5863526486337</v>
+        <v>-569.670045579676</v>
       </c>
     </row>
     <row r="6">
@@ -613,7 +616,7 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>-7.76286675797857</v>
+        <v>-7.72609508516619</v>
       </c>
     </row>
     <row r="10">
@@ -624,7 +627,7 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>-17.1962453408388</v>
+        <v>-17.2696029200864</v>
       </c>
     </row>
     <row r="11">
@@ -657,7 +660,7 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>-139.107161355172</v>
+        <v>-139.855341890837</v>
       </c>
     </row>
     <row r="14">
@@ -668,7 +671,7 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>-11.539865920551</v>
+        <v>-11.5127785388044</v>
       </c>
     </row>
     <row r="15">
@@ -712,7 +715,7 @@
         <v>100</v>
       </c>
       <c r="C18" t="n">
-        <v>51.4376835999549</v>
+        <v>40.8880544054783</v>
       </c>
     </row>
     <row r="19">
@@ -734,7 +737,7 @@
         <v>100</v>
       </c>
       <c r="C20" t="n">
-        <v>67.7649556213408</v>
+        <v>64.2383509310851</v>
       </c>
     </row>
     <row r="21">
@@ -745,7 +748,7 @@
         <v>100</v>
       </c>
       <c r="C21" t="n">
-        <v>58.933323764675</v>
+        <v>56.2455219740295</v>
       </c>
     </row>
     <row r="22">
@@ -753,10 +756,10 @@
         <v>23</v>
       </c>
       <c r="B22" t="n">
-        <v>0.0145799472061553</v>
+        <v>51.6317098181229</v>
       </c>
       <c r="C22" t="n">
-        <v>-0.0943799472061553</v>
+        <v>47.7000901818771</v>
       </c>
     </row>
     <row r="23">
@@ -775,7 +778,7 @@
         <v>25</v>
       </c>
       <c r="B24" t="n">
-        <v>75.2551692396746</v>
+        <v>76.2811008934558</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
@@ -800,7 +803,7 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>-3.95067087397286</v>
+        <v>-3.93599242662714</v>
       </c>
     </row>
     <row r="27">
@@ -822,7 +825,7 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>-16.8460458603684</v>
+        <v>-16.9236152975182</v>
       </c>
     </row>
     <row r="29">
@@ -833,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>-352.663188593939</v>
+        <v>-356.738200456518</v>
       </c>
     </row>
     <row r="30">
@@ -844,7 +847,7 @@
         <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>-198.94088450957</v>
+        <v>-217.144611868211</v>
       </c>
     </row>
     <row r="31">
@@ -855,7 +858,7 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>-119.668891593556</v>
+        <v>-118.534234593557</v>
       </c>
     </row>
     <row r="32">
@@ -866,7 +869,7 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>-1.68394656363401</v>
+        <v>-1.68205536436043</v>
       </c>
     </row>
     <row r="33">
@@ -899,7 +902,7 @@
         <v>100</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>63.7410341361279</v>
       </c>
     </row>
     <row r="36">
@@ -907,10 +910,10 @@
         <v>37</v>
       </c>
       <c r="B36" t="n">
-        <v>98.4806652187773</v>
+        <v>5036841.25808115</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>-24952838.8780812</v>
       </c>
     </row>
     <row r="37">
@@ -918,10 +921,10 @@
         <v>38</v>
       </c>
       <c r="B37" t="n">
-        <v>85.879321352802</v>
+        <v>98.4645911720681</v>
       </c>
       <c r="C37" t="n">
-        <v>20.420678647198</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -929,10 +932,10 @@
         <v>39</v>
       </c>
       <c r="B38" t="n">
-        <v>54.8406985726621</v>
+        <v>85.4392188315974</v>
       </c>
       <c r="C38" t="n">
-        <v>12.4593014273379</v>
+        <v>20.8607811684026</v>
       </c>
     </row>
     <row r="39">
@@ -940,10 +943,10 @@
         <v>40</v>
       </c>
       <c r="B39" t="n">
-        <v>1.15558321354577</v>
+        <v>76.6026138835184</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>8.59738611648164</v>
       </c>
     </row>
     <row r="40">
@@ -951,7 +954,7 @@
         <v>41</v>
       </c>
       <c r="B40" t="n">
-        <v>100</v>
+        <v>1.15024902776662</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -962,10 +965,10 @@
         <v>42</v>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="C41" t="n">
-        <v>-32.3714733699923</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -976,7 +979,7 @@
         <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>-23.6908317921052</v>
+        <v>-32.3214416664466</v>
       </c>
     </row>
     <row r="43">
@@ -987,7 +990,7 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>-75279.8049579186</v>
+        <v>-23.7364294122998</v>
       </c>
     </row>
     <row r="44">
@@ -998,7 +1001,7 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>-100</v>
+        <v>-73148.5649203542</v>
       </c>
     </row>
     <row r="45">
@@ -1009,7 +1012,7 @@
         <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>-27.2911217409472</v>
+        <v>-100</v>
       </c>
     </row>
     <row r="46">
@@ -1017,10 +1020,10 @@
         <v>47</v>
       </c>
       <c r="B46" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>-27.4294582557885</v>
       </c>
     </row>
     <row r="47">
@@ -1028,10 +1031,10 @@
         <v>48</v>
       </c>
       <c r="B47" t="n">
-        <v>101.218631456365</v>
+        <v>100</v>
       </c>
       <c r="C47" t="n">
-        <v>-583.036831456365</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48">
@@ -1039,10 +1042,10 @@
         <v>49</v>
       </c>
       <c r="B48" t="n">
-        <v>0</v>
+        <v>79.1999077832853</v>
       </c>
       <c r="C48" t="n">
-        <v>-105.071881093799</v>
+        <v>8.6571922167147</v>
       </c>
     </row>
     <row r="49">
@@ -1053,7 +1056,7 @@
         <v>0</v>
       </c>
       <c r="C49" t="n">
-        <v>-36.542136384055</v>
+        <v>-104.80164389454</v>
       </c>
     </row>
     <row r="50">
@@ -1064,7 +1067,7 @@
         <v>0</v>
       </c>
       <c r="C50" t="n">
-        <v>-54.9649532818915</v>
+        <v>-36.477461136505</v>
       </c>
     </row>
     <row r="51">
@@ -1072,10 +1075,10 @@
         <v>52</v>
       </c>
       <c r="B51" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="C51" t="n">
-        <v>12.078182486723</v>
+        <v>-55.0790776883126</v>
       </c>
     </row>
     <row r="52">
@@ -1083,10 +1086,10 @@
         <v>53</v>
       </c>
       <c r="B52" t="n">
-        <v>76.8679269298813</v>
+        <v>100</v>
       </c>
       <c r="C52" t="n">
-        <v>0</v>
+        <v>11.3008783681875</v>
       </c>
     </row>
     <row r="53">
@@ -1094,7 +1097,7 @@
         <v>54</v>
       </c>
       <c r="B53" t="n">
-        <v>12.1725985085532</v>
+        <v>77.4582617115193</v>
       </c>
       <c r="C53" t="n">
         <v>0</v>
@@ -1105,10 +1108,10 @@
         <v>55</v>
       </c>
       <c r="B54" t="n">
-        <v>0</v>
+        <v>12.1845097528324</v>
       </c>
       <c r="C54" t="n">
-        <v>-52.0332055758492</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55">
@@ -1116,10 +1119,10 @@
         <v>56</v>
       </c>
       <c r="B55" t="n">
-        <v>-83.0411921843169</v>
+        <v>0</v>
       </c>
       <c r="C55" t="n">
-        <v>-134.435607815683</v>
+        <v>41.9812151458592</v>
       </c>
     </row>
     <row r="56">
@@ -1127,10 +1130,21 @@
         <v>57</v>
       </c>
       <c r="B56" t="n">
-        <v>0</v>
+        <v>57.3394564230837</v>
       </c>
       <c r="C56" t="n">
-        <v>-0.546271439110546</v>
+        <v>44.5620435769163</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="s">
+        <v>58</v>
+      </c>
+      <c r="B57" t="n">
+        <v>0</v>
+      </c>
+      <c r="C57" t="n">
+        <v>-1.03900775035292</v>
       </c>
     </row>
   </sheetData>

--- a/03_ips_clean/05_ips_utop_distop_long.xlsx
+++ b/03_ips_clean/05_ips_utop_distop_long.xlsx
@@ -536,10 +536,10 @@
         <v>3</v>
       </c>
       <c r="B2" t="n">
-        <v>-4.73454724162634</v>
+        <v>-2.90839359293901</v>
       </c>
       <c r="C2" t="n">
-        <v>-53.5654527583737</v>
+        <v>-53.591606407061</v>
       </c>
     </row>
     <row r="3">
@@ -550,7 +550,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>-183.91424568842</v>
+        <v>-92.4718370051429</v>
       </c>
     </row>
     <row r="4">
@@ -561,7 +561,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>-3293.55117421015</v>
+        <v>-17.9808504966332</v>
       </c>
     </row>
     <row r="5">
@@ -572,7 +572,7 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>-569.670045579676</v>
+        <v>-426.572777523406</v>
       </c>
     </row>
     <row r="6">
@@ -616,7 +616,7 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>-7.72609508516619</v>
+        <v>-10.1952120157735</v>
       </c>
     </row>
     <row r="10">
@@ -627,7 +627,7 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>-17.2696029200864</v>
+        <v>-17.2651133618302</v>
       </c>
     </row>
     <row r="11">
@@ -660,7 +660,7 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>-139.855341890837</v>
+        <v>-120.017376904186</v>
       </c>
     </row>
     <row r="14">
@@ -671,7 +671,7 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>-11.5127785388044</v>
+        <v>-30.8110202686854</v>
       </c>
     </row>
     <row r="15">
@@ -715,7 +715,7 @@
         <v>100</v>
       </c>
       <c r="C18" t="n">
-        <v>40.8880544054783</v>
+        <v>40.7567343741299</v>
       </c>
     </row>
     <row r="19">
@@ -734,10 +734,10 @@
         <v>21</v>
       </c>
       <c r="B20" t="n">
-        <v>100</v>
+        <v>119.930596653695</v>
       </c>
       <c r="C20" t="n">
-        <v>64.2383509310851</v>
+        <v>77.5838033463053</v>
       </c>
     </row>
     <row r="21">
@@ -745,10 +745,10 @@
         <v>22</v>
       </c>
       <c r="B21" t="n">
-        <v>100</v>
+        <v>119.007347741651</v>
       </c>
       <c r="C21" t="n">
-        <v>56.2455219740295</v>
+        <v>64.8825522583487</v>
       </c>
     </row>
     <row r="22">
@@ -756,10 +756,10 @@
         <v>23</v>
       </c>
       <c r="B22" t="n">
-        <v>51.6317098181229</v>
+        <v>51.6901298010351</v>
       </c>
       <c r="C22" t="n">
-        <v>47.7000901818771</v>
+        <v>47.6563701989649</v>
       </c>
     </row>
     <row r="23">
@@ -778,7 +778,7 @@
         <v>25</v>
       </c>
       <c r="B24" t="n">
-        <v>76.2811008934558</v>
+        <v>76.2131031508194</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
@@ -803,7 +803,7 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>-3.93599242662714</v>
+        <v>-4.1120810867329</v>
       </c>
     </row>
     <row r="27">
@@ -814,7 +814,7 @@
         <v>83.7</v>
       </c>
       <c r="C27" t="n">
-        <v>50.1</v>
+        <v>62.2943731805401</v>
       </c>
     </row>
     <row r="28">
@@ -825,7 +825,7 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>-16.9236152975182</v>
+        <v>-17.7126432576461</v>
       </c>
     </row>
     <row r="29">
@@ -836,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>-356.738200456518</v>
+        <v>-308.304295716853</v>
       </c>
     </row>
     <row r="30">
@@ -847,7 +847,7 @@
         <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>-217.144611868211</v>
+        <v>-197.408577999734</v>
       </c>
     </row>
     <row r="31">
@@ -858,7 +858,7 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>-118.534234593557</v>
+        <v>-57.0960890080835</v>
       </c>
     </row>
     <row r="32">
@@ -869,7 +869,7 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>-1.68205536436043</v>
+        <v>-1.68063039637909</v>
       </c>
     </row>
     <row r="33">
@@ -902,7 +902,7 @@
         <v>100</v>
       </c>
       <c r="C35" t="n">
-        <v>63.7410341361279</v>
+        <v>63.592094678659</v>
       </c>
     </row>
     <row r="36">
@@ -910,10 +910,10 @@
         <v>37</v>
       </c>
       <c r="B36" t="n">
-        <v>5036841.25808115</v>
+        <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>-24952838.8780812</v>
+        <v>-24882356.4142312</v>
       </c>
     </row>
     <row r="37">
@@ -921,7 +921,7 @@
         <v>38</v>
       </c>
       <c r="B37" t="n">
-        <v>98.4645911720681</v>
+        <v>100</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -932,10 +932,10 @@
         <v>39</v>
       </c>
       <c r="B38" t="n">
-        <v>85.4392188315974</v>
+        <v>85.086409826228</v>
       </c>
       <c r="C38" t="n">
-        <v>20.8607811684026</v>
+        <v>21.213590173772</v>
       </c>
     </row>
     <row r="39">
@@ -943,10 +943,10 @@
         <v>40</v>
       </c>
       <c r="B39" t="n">
-        <v>76.6026138835184</v>
+        <v>78.1391095798395</v>
       </c>
       <c r="C39" t="n">
-        <v>8.59738611648164</v>
+        <v>7.0608904201605</v>
       </c>
     </row>
     <row r="40">
@@ -954,7 +954,7 @@
         <v>41</v>
       </c>
       <c r="B40" t="n">
-        <v>1.15024902776662</v>
+        <v>0.786957828908489</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -979,7 +979,7 @@
         <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>-32.3214416664466</v>
+        <v>-32.336921848235</v>
       </c>
     </row>
     <row r="43">
@@ -990,7 +990,7 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>-23.7364294122998</v>
+        <v>-24.177363536809</v>
       </c>
     </row>
     <row r="44">
@@ -998,10 +998,10 @@
         <v>45</v>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>2538.3535479411</v>
       </c>
       <c r="C44" t="n">
-        <v>-73148.5649203542</v>
+        <v>-72924.3706479411</v>
       </c>
     </row>
     <row r="45">
@@ -1023,7 +1023,7 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>-27.4294582557885</v>
+        <v>-26.3430837313878</v>
       </c>
     </row>
     <row r="47">
@@ -1034,7 +1034,7 @@
         <v>100</v>
       </c>
       <c r="C47" t="n">
-        <v>0</v>
+        <v>48.4151884980697</v>
       </c>
     </row>
     <row r="48">
@@ -1042,10 +1042,10 @@
         <v>49</v>
       </c>
       <c r="B48" t="n">
-        <v>79.1999077832853</v>
+        <v>79.1868180835127</v>
       </c>
       <c r="C48" t="n">
-        <v>8.6571922167147</v>
+        <v>8.67028191648729</v>
       </c>
     </row>
     <row r="49">
@@ -1056,7 +1056,7 @@
         <v>0</v>
       </c>
       <c r="C49" t="n">
-        <v>-104.80164389454</v>
+        <v>-104.535709632105</v>
       </c>
     </row>
     <row r="50">
@@ -1067,7 +1067,7 @@
         <v>0</v>
       </c>
       <c r="C50" t="n">
-        <v>-36.477461136505</v>
+        <v>-36.4351824089894</v>
       </c>
     </row>
     <row r="51">
@@ -1078,7 +1078,7 @@
         <v>0</v>
       </c>
       <c r="C51" t="n">
-        <v>-55.0790776883126</v>
+        <v>-55.1574614756681</v>
       </c>
     </row>
     <row r="52">
@@ -1086,10 +1086,10 @@
         <v>53</v>
       </c>
       <c r="B52" t="n">
-        <v>100</v>
+        <v>124.503179337421</v>
       </c>
       <c r="C52" t="n">
-        <v>11.3008783681875</v>
+        <v>14.3897206625785</v>
       </c>
     </row>
     <row r="53">
@@ -1097,7 +1097,7 @@
         <v>54</v>
       </c>
       <c r="B53" t="n">
-        <v>77.4582617115193</v>
+        <v>0.791442433483061</v>
       </c>
       <c r="C53" t="n">
         <v>0</v>
@@ -1108,7 +1108,7 @@
         <v>55</v>
       </c>
       <c r="B54" t="n">
-        <v>12.1845097528324</v>
+        <v>12.1890269439108</v>
       </c>
       <c r="C54" t="n">
         <v>0</v>
@@ -1119,10 +1119,10 @@
         <v>56</v>
       </c>
       <c r="B55" t="n">
-        <v>0</v>
+        <v>66.843604184576</v>
       </c>
       <c r="C55" t="n">
-        <v>41.9812151458592</v>
+        <v>42.004795815424</v>
       </c>
     </row>
     <row r="56">
@@ -1130,10 +1130,10 @@
         <v>57</v>
       </c>
       <c r="B56" t="n">
-        <v>57.3394564230837</v>
+        <v>57.6785210626218</v>
       </c>
       <c r="C56" t="n">
-        <v>44.5620435769163</v>
+        <v>44.4392789373782</v>
       </c>
     </row>
     <row r="57">
@@ -1141,10 +1141,10 @@
         <v>58</v>
       </c>
       <c r="B57" t="n">
-        <v>0</v>
+        <v>8.06457538540617</v>
       </c>
       <c r="C57" t="n">
-        <v>-1.03900775035292</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/03_ips_clean/05_ips_utop_distop_long.xlsx
+++ b/03_ips_clean/05_ips_utop_distop_long.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="57">
   <si>
     <t xml:space="preserve">id_unica</t>
   </si>
@@ -110,9 +110,6 @@
     <t xml:space="preserve">ind_0229</t>
   </si>
   <si>
-    <t xml:space="preserve">ind_0230</t>
-  </si>
-  <si>
     <t xml:space="preserve">ind_0231</t>
   </si>
   <si>
@@ -123,9 +120,6 @@
   </si>
   <si>
     <t xml:space="preserve">ind_0234</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ind_0256</t>
   </si>
   <si>
     <t xml:space="preserve">ind_0335</t>
@@ -536,10 +530,10 @@
         <v>3</v>
       </c>
       <c r="B2" t="n">
-        <v>-2.90839359293901</v>
+        <v>-2.90874921508657</v>
       </c>
       <c r="C2" t="n">
-        <v>-53.591606407061</v>
+        <v>-53.5912507849134</v>
       </c>
     </row>
     <row r="3">
@@ -550,7 +544,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>-92.4718370051429</v>
+        <v>-97.0154631658537</v>
       </c>
     </row>
     <row r="4">
@@ -561,7 +555,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>-17.9808504966332</v>
+        <v>-17.7982688474774</v>
       </c>
     </row>
     <row r="5">
@@ -572,7 +566,7 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>-426.572777523406</v>
+        <v>-481.007002235318</v>
       </c>
     </row>
     <row r="6">
@@ -616,7 +610,7 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>-10.1952120157735</v>
+        <v>-10.1748626327356</v>
       </c>
     </row>
     <row r="10">
@@ -627,7 +621,7 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>-17.2651133618302</v>
+        <v>-17.2615908417889</v>
       </c>
     </row>
     <row r="11">
@@ -660,7 +654,7 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>-120.017376904186</v>
+        <v>-143.212673573112</v>
       </c>
     </row>
     <row r="14">
@@ -671,7 +665,7 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>-30.8110202686854</v>
+        <v>-33.3961551322635</v>
       </c>
     </row>
     <row r="15">
@@ -715,7 +709,7 @@
         <v>100</v>
       </c>
       <c r="C18" t="n">
-        <v>40.7567343741299</v>
+        <v>40.8766913692104</v>
       </c>
     </row>
     <row r="19">
@@ -734,10 +728,10 @@
         <v>21</v>
       </c>
       <c r="B20" t="n">
-        <v>119.930596653695</v>
+        <v>119.877133448577</v>
       </c>
       <c r="C20" t="n">
-        <v>77.5838033463053</v>
+        <v>77.6228665514233</v>
       </c>
     </row>
     <row r="21">
@@ -745,10 +739,10 @@
         <v>22</v>
       </c>
       <c r="B21" t="n">
-        <v>119.007347741651</v>
+        <v>118.92158069216</v>
       </c>
       <c r="C21" t="n">
-        <v>64.8825522583487</v>
+        <v>64.9784193078396</v>
       </c>
     </row>
     <row r="22">
@@ -756,10 +750,10 @@
         <v>23</v>
       </c>
       <c r="B22" t="n">
-        <v>51.6901298010351</v>
+        <v>51.6584720469673</v>
       </c>
       <c r="C22" t="n">
-        <v>47.6563701989649</v>
+        <v>47.6733279530327</v>
       </c>
     </row>
     <row r="23">
@@ -778,7 +772,7 @@
         <v>25</v>
       </c>
       <c r="B24" t="n">
-        <v>76.2131031508194</v>
+        <v>76.1594152352369</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
@@ -803,7 +797,7 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>-4.1120810867329</v>
+        <v>-4.09777216368954</v>
       </c>
     </row>
     <row r="27">
@@ -814,7 +808,7 @@
         <v>83.7</v>
       </c>
       <c r="C27" t="n">
-        <v>62.2943731805401</v>
+        <v>62.3810554290748</v>
       </c>
     </row>
     <row r="28">
@@ -825,7 +819,7 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>-17.7126432576461</v>
+        <v>-17.8419178618006</v>
       </c>
     </row>
     <row r="29">
@@ -836,7 +830,7 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>-308.304295716853</v>
+        <v>-306.84800343138</v>
       </c>
     </row>
     <row r="30">
@@ -847,7 +841,7 @@
         <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>-197.408577999734</v>
+        <v>-196.966609743673</v>
       </c>
     </row>
     <row r="31">
@@ -858,7 +852,7 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>-57.0960890080835</v>
+        <v>-1.68233469380408</v>
       </c>
     </row>
     <row r="32">
@@ -869,7 +863,7 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>-1.68063039637909</v>
+        <v>-100</v>
       </c>
     </row>
     <row r="33">
@@ -877,10 +871,10 @@
         <v>34</v>
       </c>
       <c r="B33" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C33" t="n">
-        <v>-100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -891,7 +885,7 @@
         <v>100</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>63.5488231471459</v>
       </c>
     </row>
     <row r="35">
@@ -902,7 +896,7 @@
         <v>100</v>
       </c>
       <c r="C35" t="n">
-        <v>63.592094678659</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -910,10 +904,10 @@
         <v>37</v>
       </c>
       <c r="B36" t="n">
-        <v>0</v>
+        <v>84.7969839369398</v>
       </c>
       <c r="C36" t="n">
-        <v>-24882356.4142312</v>
+        <v>21.5030160630602</v>
       </c>
     </row>
     <row r="37">
@@ -921,10 +915,10 @@
         <v>38</v>
       </c>
       <c r="B37" t="n">
-        <v>100</v>
+        <v>78.249427674313</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>6.950572325687</v>
       </c>
     </row>
     <row r="38">
@@ -932,10 +926,10 @@
         <v>39</v>
       </c>
       <c r="B38" t="n">
-        <v>85.086409826228</v>
+        <v>0.780736180531579</v>
       </c>
       <c r="C38" t="n">
-        <v>21.213590173772</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -943,10 +937,10 @@
         <v>40</v>
       </c>
       <c r="B39" t="n">
-        <v>78.1391095798395</v>
+        <v>-100</v>
       </c>
       <c r="C39" t="n">
-        <v>7.0608904201605</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -954,10 +948,10 @@
         <v>41</v>
       </c>
       <c r="B40" t="n">
-        <v>0.786957828908489</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>-49.5703051085785</v>
       </c>
     </row>
     <row r="41">
@@ -965,10 +959,10 @@
         <v>42</v>
       </c>
       <c r="B41" t="n">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>-24.2349418767532</v>
       </c>
     </row>
     <row r="42">
@@ -976,10 +970,10 @@
         <v>43</v>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>2150.9346683916</v>
       </c>
       <c r="C42" t="n">
-        <v>-32.336921848235</v>
+        <v>-72536.9517683916</v>
       </c>
     </row>
     <row r="43">
@@ -990,7 +984,7 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>-24.177363536809</v>
+        <v>-100</v>
       </c>
     </row>
     <row r="44">
@@ -998,10 +992,10 @@
         <v>45</v>
       </c>
       <c r="B44" t="n">
-        <v>2538.3535479411</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>-72924.3706479411</v>
+        <v>-26.2370622763678</v>
       </c>
     </row>
     <row r="45">
@@ -1009,10 +1003,10 @@
         <v>46</v>
       </c>
       <c r="B45" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C45" t="n">
-        <v>-100</v>
+        <v>48.4992989817909</v>
       </c>
     </row>
     <row r="46">
@@ -1020,10 +1014,10 @@
         <v>47</v>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>0.790794760052541</v>
       </c>
       <c r="C46" t="n">
-        <v>-26.3430837313878</v>
+        <v>0.0878052399474593</v>
       </c>
     </row>
     <row r="47">
@@ -1031,10 +1025,10 @@
         <v>48</v>
       </c>
       <c r="B47" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="C47" t="n">
-        <v>48.4151884980697</v>
+        <v>-66.2958615559492</v>
       </c>
     </row>
     <row r="48">
@@ -1042,10 +1036,10 @@
         <v>49</v>
       </c>
       <c r="B48" t="n">
-        <v>79.1868180835127</v>
+        <v>0</v>
       </c>
       <c r="C48" t="n">
-        <v>8.67028191648729</v>
+        <v>-36.3994645767069</v>
       </c>
     </row>
     <row r="49">
@@ -1056,7 +1050,7 @@
         <v>0</v>
       </c>
       <c r="C49" t="n">
-        <v>-104.535709632105</v>
+        <v>-55.173325146011</v>
       </c>
     </row>
     <row r="50">
@@ -1064,10 +1058,10 @@
         <v>51</v>
       </c>
       <c r="B50" t="n">
-        <v>0</v>
+        <v>129.273119190095</v>
       </c>
       <c r="C50" t="n">
-        <v>-36.4351824089894</v>
+        <v>14.2245808099053</v>
       </c>
     </row>
     <row r="51">
@@ -1075,10 +1069,10 @@
         <v>52</v>
       </c>
       <c r="B51" t="n">
-        <v>0</v>
+        <v>81.4205159114816</v>
       </c>
       <c r="C51" t="n">
-        <v>-55.1574614756681</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52">
@@ -1086,10 +1080,10 @@
         <v>53</v>
       </c>
       <c r="B52" t="n">
-        <v>124.503179337421</v>
+        <v>12.1899747994087</v>
       </c>
       <c r="C52" t="n">
-        <v>14.3897206625785</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53">
@@ -1097,10 +1091,10 @@
         <v>54</v>
       </c>
       <c r="B53" t="n">
-        <v>0.791442433483061</v>
+        <v>66.8508391595614</v>
       </c>
       <c r="C53" t="n">
-        <v>0</v>
+        <v>41.9975608404386</v>
       </c>
     </row>
     <row r="54">
@@ -1108,10 +1102,10 @@
         <v>55</v>
       </c>
       <c r="B54" t="n">
-        <v>12.1890269439108</v>
+        <v>57.747890509313</v>
       </c>
       <c r="C54" t="n">
-        <v>0</v>
+        <v>44.369909490687</v>
       </c>
     </row>
     <row r="55">
@@ -1119,31 +1113,9 @@
         <v>56</v>
       </c>
       <c r="B55" t="n">
-        <v>66.843604184576</v>
+        <v>8.50696157959982</v>
       </c>
       <c r="C55" t="n">
-        <v>42.004795815424</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" t="s">
-        <v>57</v>
-      </c>
-      <c r="B56" t="n">
-        <v>57.6785210626218</v>
-      </c>
-      <c r="C56" t="n">
-        <v>44.4392789373782</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" t="s">
-        <v>58</v>
-      </c>
-      <c r="B57" t="n">
-        <v>8.06457538540617</v>
-      </c>
-      <c r="C57" t="n">
         <v>0</v>
       </c>
     </row>

--- a/03_ips_clean/05_ips_utop_distop_long.xlsx
+++ b/03_ips_clean/05_ips_utop_distop_long.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="58">
   <si>
     <t xml:space="preserve">id_unica</t>
   </si>
@@ -120,6 +120,9 @@
   </si>
   <si>
     <t xml:space="preserve">ind_0234</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ind_0258</t>
   </si>
   <si>
     <t xml:space="preserve">ind_0335</t>
@@ -530,10 +533,10 @@
         <v>3</v>
       </c>
       <c r="B2" t="n">
-        <v>-2.90874921508657</v>
+        <v>-1.00556103475826</v>
       </c>
       <c r="C2" t="n">
-        <v>-53.5912507849134</v>
+        <v>-53.7621389652417</v>
       </c>
     </row>
     <row r="3">
@@ -544,7 +547,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>-97.0154631658537</v>
+        <v>-92.4123053748051</v>
       </c>
     </row>
     <row r="4">
@@ -555,7 +558,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>-17.7982688474774</v>
+        <v>-17.8205863305561</v>
       </c>
     </row>
     <row r="5">
@@ -566,7 +569,7 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>-481.007002235318</v>
+        <v>-477.7581210826</v>
       </c>
     </row>
     <row r="6">
@@ -610,7 +613,7 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>-10.1748626327356</v>
+        <v>-10.1991797275397</v>
       </c>
     </row>
     <row r="10">
@@ -621,7 +624,7 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>-17.2615908417889</v>
+        <v>-14.4448990510469</v>
       </c>
     </row>
     <row r="11">
@@ -654,7 +657,7 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>-143.212673573112</v>
+        <v>-137.937613066586</v>
       </c>
     </row>
     <row r="14">
@@ -665,7 +668,7 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>-33.3961551322635</v>
+        <v>-33.7112943585674</v>
       </c>
     </row>
     <row r="15">
@@ -709,7 +712,7 @@
         <v>100</v>
       </c>
       <c r="C18" t="n">
-        <v>40.8766913692104</v>
+        <v>42.3917022721389</v>
       </c>
     </row>
     <row r="19">
@@ -728,10 +731,10 @@
         <v>21</v>
       </c>
       <c r="B20" t="n">
-        <v>119.877133448577</v>
+        <v>114.286020203662</v>
       </c>
       <c r="C20" t="n">
-        <v>77.6228665514233</v>
+        <v>83.4376797963379</v>
       </c>
     </row>
     <row r="21">
@@ -739,10 +742,10 @@
         <v>22</v>
       </c>
       <c r="B21" t="n">
-        <v>118.92158069216</v>
+        <v>112.050688995084</v>
       </c>
       <c r="C21" t="n">
-        <v>64.9784193078396</v>
+        <v>55.7506110049155</v>
       </c>
     </row>
     <row r="22">
@@ -750,10 +753,10 @@
         <v>23</v>
       </c>
       <c r="B22" t="n">
-        <v>51.6584720469673</v>
+        <v>51.6637842561602</v>
       </c>
       <c r="C22" t="n">
-        <v>47.6733279530327</v>
+        <v>47.6680157438398</v>
       </c>
     </row>
     <row r="23">
@@ -772,7 +775,7 @@
         <v>25</v>
       </c>
       <c r="B24" t="n">
-        <v>76.1594152352369</v>
+        <v>76.0319918874954</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
@@ -797,7 +800,7 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>-4.09777216368954</v>
+        <v>-4.08325603352729</v>
       </c>
     </row>
     <row r="27">
@@ -808,7 +811,7 @@
         <v>83.7</v>
       </c>
       <c r="C27" t="n">
-        <v>62.3810554290748</v>
+        <v>62.4514264712677</v>
       </c>
     </row>
     <row r="28">
@@ -819,7 +822,7 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>-17.8419178618006</v>
+        <v>-17.7587175297043</v>
       </c>
     </row>
     <row r="29">
@@ -830,7 +833,7 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>-306.84800343138</v>
+        <v>-306.938002232812</v>
       </c>
     </row>
     <row r="30">
@@ -841,7 +844,7 @@
         <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>-196.966609743673</v>
+        <v>-196.759751639878</v>
       </c>
     </row>
     <row r="31">
@@ -852,7 +855,7 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>-1.68233469380408</v>
+        <v>-168.230129111615</v>
       </c>
     </row>
     <row r="32">
@@ -885,7 +888,7 @@
         <v>100</v>
       </c>
       <c r="C34" t="n">
-        <v>63.5488231471459</v>
+        <v>63.2737096920308</v>
       </c>
     </row>
     <row r="35">
@@ -904,10 +907,10 @@
         <v>37</v>
       </c>
       <c r="B36" t="n">
-        <v>84.7969839369398</v>
+        <v>100</v>
       </c>
       <c r="C36" t="n">
-        <v>21.5030160630602</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -915,10 +918,10 @@
         <v>38</v>
       </c>
       <c r="B37" t="n">
-        <v>78.249427674313</v>
+        <v>84.6347475605377</v>
       </c>
       <c r="C37" t="n">
-        <v>6.950572325687</v>
+        <v>21.6652524394623</v>
       </c>
     </row>
     <row r="38">
@@ -926,10 +929,10 @@
         <v>39</v>
       </c>
       <c r="B38" t="n">
-        <v>0.780736180531579</v>
+        <v>78.2378093156861</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>6.9621906843139</v>
       </c>
     </row>
     <row r="39">
@@ -937,7 +940,7 @@
         <v>40</v>
       </c>
       <c r="B39" t="n">
-        <v>-100</v>
+        <v>0.775496779174596</v>
       </c>
       <c r="C39" t="n">
         <v>0</v>
@@ -948,10 +951,10 @@
         <v>41</v>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="C40" t="n">
-        <v>-49.5703051085785</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -962,7 +965,7 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>-24.2349418767532</v>
+        <v>-49.5961476985188</v>
       </c>
     </row>
     <row r="42">
@@ -970,10 +973,10 @@
         <v>43</v>
       </c>
       <c r="B42" t="n">
-        <v>2150.9346683916</v>
+        <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>-72536.9517683916</v>
+        <v>-24.3002340586761</v>
       </c>
     </row>
     <row r="43">
@@ -981,10 +984,10 @@
         <v>44</v>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>1830.5047393896</v>
       </c>
       <c r="C43" t="n">
-        <v>-100</v>
+        <v>-72216.5218393896</v>
       </c>
     </row>
     <row r="44">
@@ -995,7 +998,7 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>-26.2370622763678</v>
+        <v>-100</v>
       </c>
     </row>
     <row r="45">
@@ -1003,10 +1006,10 @@
         <v>46</v>
       </c>
       <c r="B45" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>48.4992989817909</v>
+        <v>-27.7789843529837</v>
       </c>
     </row>
     <row r="46">
@@ -1014,10 +1017,10 @@
         <v>47</v>
       </c>
       <c r="B46" t="n">
-        <v>0.790794760052541</v>
+        <v>100</v>
       </c>
       <c r="C46" t="n">
-        <v>0.0878052399474593</v>
+        <v>48.503370840325</v>
       </c>
     </row>
     <row r="47">
@@ -1025,10 +1028,10 @@
         <v>48</v>
       </c>
       <c r="B47" t="n">
-        <v>0</v>
+        <v>0.788905490544014</v>
       </c>
       <c r="C47" t="n">
-        <v>-66.2958615559492</v>
+        <v>0.0896945094559863</v>
       </c>
     </row>
     <row r="48">
@@ -1039,7 +1042,7 @@
         <v>0</v>
       </c>
       <c r="C48" t="n">
-        <v>-36.3994645767069</v>
+        <v>-72.8822927681898</v>
       </c>
     </row>
     <row r="49">
@@ -1050,7 +1053,7 @@
         <v>0</v>
       </c>
       <c r="C49" t="n">
-        <v>-55.173325146011</v>
+        <v>-36.4231622132434</v>
       </c>
     </row>
     <row r="50">
@@ -1058,10 +1061,10 @@
         <v>51</v>
       </c>
       <c r="B50" t="n">
-        <v>129.273119190095</v>
+        <v>0</v>
       </c>
       <c r="C50" t="n">
-        <v>14.2245808099053</v>
+        <v>-55.6824501811408</v>
       </c>
     </row>
     <row r="51">
@@ -1069,10 +1072,10 @@
         <v>52</v>
       </c>
       <c r="B51" t="n">
-        <v>81.4205159114816</v>
+        <v>129.341580128077</v>
       </c>
       <c r="C51" t="n">
-        <v>0</v>
+        <v>14.1561198719229</v>
       </c>
     </row>
     <row r="52">
@@ -1080,7 +1083,7 @@
         <v>53</v>
       </c>
       <c r="B52" t="n">
-        <v>12.1899747994087</v>
+        <v>0.772572530648861</v>
       </c>
       <c r="C52" t="n">
         <v>0</v>
@@ -1091,10 +1094,10 @@
         <v>54</v>
       </c>
       <c r="B53" t="n">
-        <v>66.8508391595614</v>
+        <v>12.3227952077669</v>
       </c>
       <c r="C53" t="n">
-        <v>41.9975608404386</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54">
@@ -1102,10 +1105,10 @@
         <v>55</v>
       </c>
       <c r="B54" t="n">
-        <v>57.747890509313</v>
+        <v>66.914046891195</v>
       </c>
       <c r="C54" t="n">
-        <v>44.369909490687</v>
+        <v>41.083253108805</v>
       </c>
     </row>
     <row r="55">
@@ -1113,9 +1116,20 @@
         <v>56</v>
       </c>
       <c r="B55" t="n">
-        <v>8.50696157959982</v>
+        <v>57.7740168943814</v>
       </c>
       <c r="C55" t="n">
+        <v>44.0628831056186</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="s">
+        <v>57</v>
+      </c>
+      <c r="B56" t="n">
+        <v>8.54393343750442</v>
+      </c>
+      <c r="C56" t="n">
         <v>0</v>
       </c>
     </row>
